--- a/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2015</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,14 +618,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>12,57%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>31,35%</t>
+          <t>21,07%</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,88; 16,94</t>
+          <t>0,0; 23,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,49</t>
+          <t>0,0; 27,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,46</t>
+          <t>10,01; 39,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,52; 41,81</t>
+          <t>0,0; 25,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,09</t>
+          <t>8,86; 40,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,19</t>
+          <t>8,2; 44,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,93</t>
+          <t>1,42; 15,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,0; 47,95</t>
+          <t>7,91; 27,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,28</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,99; 15,44</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>6,75; 11,22</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>23,66; 40,55</t>
+          <t>12,0; 34,03</t>
         </is>
       </c>
     </row>
@@ -811,47 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>12,75%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
           <t>10,91%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>38,68%</t>
         </is>
       </c>
     </row>
@@ -879,54 +810,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,6; 64,63</t>
+          <t>6,97; 17,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 17,62</t>
+          <t>7,22; 17,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 17,97</t>
+          <t>4,97; 13,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 13,99</t>
+          <t>9,93; 17,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 57,54</t>
+          <t>9,59; 17,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,49</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 17,02</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
           <t>7,84; 15,15</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>25,33; 53,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,77%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>10,3%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>41,34%</t>
+          <t>8,8%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,04</t>
+          <t>8,88; 16,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 17,11</t>
+          <t>9,63; 17,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,5</t>
+          <t>5,9; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,2; 59,93</t>
+          <t>7,34; 15,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 14,11</t>
+          <t>8,52; 16,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 18,87</t>
+          <t>6,35; 12,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,61</t>
+          <t>8,81; 14,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,81; 57,21</t>
+          <t>9,99; 15,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,48</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,95; 16,81</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>7,64; 12,91</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>31,47; 53,04</t>
+          <t>6,75; 11,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>21,07%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>66,81%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>5,92; 14,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,23</t>
+          <t>6,0; 13,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 39,61</t>
+          <t>5,32; 13,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 91,49</t>
+          <t>3,61; 10,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,42</t>
+          <t>7,17; 16,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 40,58</t>
+          <t>4,4; 11,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 44,08</t>
+          <t>5,53; 10,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,09; 100,0</t>
+          <t>7,5; 13,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 15,0</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 27,15</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>12,0; 34,03</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>35,88; 88,06</t>
+          <t>5,9; 11,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>10,35%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>61,1%</t>
+          <t>10,3%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,92; 14,16</t>
+          <t>5,29; 12,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 13,89</t>
+          <t>9,39; 17,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 13,62</t>
+          <t>6,72; 13,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,09; 73,82</t>
+          <t>6,44; 14,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,56</t>
+          <t>10,41; 18,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,0</t>
+          <t>7,36; 15,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,0</t>
+          <t>6,67; 11,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,47; 79,32</t>
+          <t>10,95; 16,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,62</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 13,69</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 11,1</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>49,12; 72,59</t>
+          <t>7,64; 12,91</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
           <t>9,88%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>43,43%</t>
         </is>
       </c>
     </row>
@@ -1439,61 +1250,46 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,86; 50,17</t>
+          <t>7,62; 11,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,61</t>
+          <t>10,85; 15,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,08</t>
+          <t>7,76; 11,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,62</t>
+          <t>8,81; 11,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,73; 53,6</t>
+          <t>11,04; 14,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,48</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>11,04; 14,1</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
           <t>8,7; 11,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>37,79; 49,2</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>0,0; 20,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,23</t>
+          <t>0,0; 29,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 39,61</t>
+          <t>10,26; 39,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,42</t>
+          <t>0,0; 22,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 40,58</t>
+          <t>8,52; 42,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 44,08</t>
+          <t>6,17; 43,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 15,0</t>
+          <t>1,44; 15,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 27,15</t>
+          <t>6,27; 26,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 34,03</t>
+          <t>11,86; 33,72</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 21,15</t>
+          <t>10,2; 21,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 19,26</t>
+          <t>8,62; 18,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 19,59</t>
+          <t>7,99; 19,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 17,62</t>
+          <t>6,63; 16,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 17,97</t>
+          <t>7,78; 17,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 13,99</t>
+          <t>4,62; 14,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,49</t>
+          <t>10,15; 17,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 17,02</t>
+          <t>9,51; 16,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 15,15</t>
+          <t>7,45; 14,46</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 16,94</t>
+          <t>8,79; 16,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,49</t>
+          <t>9,83; 17,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,46</t>
+          <t>5,96; 12,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,09</t>
+          <t>7,36; 15,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,19</t>
+          <t>8,78; 16,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,93</t>
+          <t>6,29; 12,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,28</t>
+          <t>8,88; 14,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 15,44</t>
+          <t>10,03; 15,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,22</t>
+          <t>6,76; 11,2</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 14,16</t>
+          <t>5,92; 13,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 13,89</t>
+          <t>6,22; 13,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 13,62</t>
+          <t>5,5; 13,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,56</t>
+          <t>3,54; 10,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,0</t>
+          <t>7,32; 16,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,0</t>
+          <t>4,71; 11,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,62</t>
+          <t>5,63; 10,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,69</t>
+          <t>7,81; 13,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 11,1</t>
+          <t>5,82; 11,06</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,04</t>
+          <t>5,24; 12,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 17,11</t>
+          <t>9,63; 17,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,5</t>
+          <t>6,9; 14,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 14,11</t>
+          <t>6,35; 14,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 18,87</t>
+          <t>10,47; 18,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,61</t>
+          <t>7,48; 14,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,48</t>
+          <t>6,54; 11,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 16,81</t>
+          <t>11,08; 17,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,91</t>
+          <t>7,97; 13,1</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,76</t>
+          <t>8,73; 12,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,49</t>
+          <t>10,5; 14,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 12,21</t>
+          <t>8,53; 12,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,61</t>
+          <t>7,46; 11,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,08</t>
+          <t>10,82; 14,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,62</t>
+          <t>7,96; 11,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,48</t>
+          <t>8,63; 11,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,04; 14,1</t>
+          <t>11,22; 14,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,34</t>
+          <t>8,57; 11,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,78</t>
+          <t>0,0; 20,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,65</t>
+          <t>0,0; 26,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 39,77</t>
+          <t>9,56; 40,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,83</t>
+          <t>0,0; 23,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 42,69</t>
+          <t>8,46; 43,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 43,4</t>
+          <t>6,09; 42,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 15,06</t>
+          <t>1,43; 14,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 26,55</t>
+          <t>6,49; 26,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,86; 33,72</t>
+          <t>11,13; 32,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 21,14</t>
+          <t>9,8; 21,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 18,88</t>
+          <t>8,82; 18,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 19,06</t>
+          <t>8,52; 20,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 16,98</t>
+          <t>7,32; 17,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 17,96</t>
+          <t>7,18; 17,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 14,35</t>
+          <t>4,7; 13,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,31</t>
+          <t>10,04; 17,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,61</t>
+          <t>9,26; 16,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,46</t>
+          <t>7,64; 14,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 16,7</t>
+          <t>8,84; 16,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 17,77</t>
+          <t>9,6; 17,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,21</t>
+          <t>5,85; 12,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,05</t>
+          <t>6,93; 14,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,13</t>
+          <t>8,77; 16,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 12,72</t>
+          <t>6,12; 12,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,3</t>
+          <t>8,87; 14,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,27</t>
+          <t>9,81; 15,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,2</t>
+          <t>6,82; 11,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 13,65</t>
+          <t>5,88; 13,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,95</t>
+          <t>6,22; 14,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 13,28</t>
+          <t>5,63; 13,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,5</t>
+          <t>3,69; 10,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 16,15</t>
+          <t>7,89; 16,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,43</t>
+          <t>4,64; 11,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,63</t>
+          <t>5,53; 10,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,52</t>
+          <t>7,68; 13,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 11,06</t>
+          <t>5,99; 11,39</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,17</t>
+          <t>4,91; 11,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,86</t>
+          <t>10,08; 17,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,05</t>
+          <t>6,83; 13,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,02</t>
+          <t>6,34; 13,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 18,69</t>
+          <t>10,41; 18,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 14,91</t>
+          <t>7,4; 14,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,43</t>
+          <t>6,73; 11,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,08; 17,09</t>
+          <t>11,1; 16,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 13,1</t>
+          <t>8,08; 13,11</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,6</t>
+          <t>8,88; 13,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,58</t>
+          <t>10,32; 14,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,32</t>
+          <t>8,49; 12,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,4</t>
+          <t>7,67; 11,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,97</t>
+          <t>10,65; 15,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,65</t>
+          <t>7,96; 11,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,39</t>
+          <t>8,68; 11,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,22; 14,18</t>
+          <t>11,05; 14,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,27</t>
+          <t>8,59; 11,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,48</t>
+          <t>6,54; 15,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,7</t>
+          <t>9,02; 18,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 40,02</t>
+          <t>6,65; 16,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,73</t>
+          <t>9,31; 18,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,46; 43,15</t>
+          <t>8,7; 17,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 42,46</t>
+          <t>9,75; 20,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 14,99</t>
+          <t>9,19; 15,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 26,51</t>
+          <t>10,03; 16,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 32,59</t>
+          <t>9,4; 16,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>8,8%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 21,32</t>
+          <t>7,34; 15,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,96</t>
+          <t>8,52; 16,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 20,11</t>
+          <t>6,35; 12,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 17,26</t>
+          <t>8,88; 16,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 17,01</t>
+          <t>9,63; 17,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 13,97</t>
+          <t>5,9; 12,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 17,63</t>
+          <t>8,81; 14,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 16,8</t>
+          <t>9,99; 15,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,54</t>
+          <t>6,75; 11,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 16,71</t>
+          <t>3,61; 10,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,07</t>
+          <t>7,17; 16,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 12,24</t>
+          <t>4,4; 11,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,81</t>
+          <t>5,92; 14,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 16,19</t>
+          <t>6,0; 13,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,94</t>
+          <t>5,32; 13,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,41</t>
+          <t>5,53; 10,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 15,52</t>
+          <t>7,5; 13,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,24</t>
+          <t>5,9; 11,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>10,3%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,99</t>
+          <t>6,44; 14,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 14,3</t>
+          <t>10,41; 18,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 13,31</t>
+          <t>7,36; 15,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,44</t>
+          <t>5,29; 12,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 16,61</t>
+          <t>9,39; 17,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 11,54</t>
+          <t>6,72; 13,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,37</t>
+          <t>6,67; 11,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,57</t>
+          <t>10,95; 16,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,39</t>
+          <t>7,64; 12,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,81</t>
+          <t>7,62; 11,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 17,6</t>
+          <t>10,85; 15,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,75</t>
+          <t>7,76; 11,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 13,6</t>
+          <t>8,9; 12,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 18,55</t>
+          <t>10,27; 14,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 14,66</t>
+          <t>8,32; 12,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,31</t>
+          <t>8,81; 11,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,1; 16,7</t>
+          <t>11,04; 14,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 13,11</t>
+          <t>8,7; 11,34</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,62%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,33%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,78%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,88; 13,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,32; 14,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,49; 12,22</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,67; 11,49</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10,65; 15,12</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 11,59</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 11,46</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,05; 14,14</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>8,59; 11,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
